--- a/biology/Botanique/Pilobolus_(champignon)/Pilobolus_(champignon).xlsx
+++ b/biology/Botanique/Pilobolus_(champignon)/Pilobolus_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilobolus est un genre de champignons coprophiles, de la famille des Pilobolaceae (en) (ordre des Mucorales).
 L'espèce la plus répandue est Pilobolus crystallinus (en).
@@ -512,15 +524,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (30 mars 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 mars 2019) :
 Pilobolus crystallinus (F.H. Wigg.) Tode
 Pilobolus lentiger Corda
 Pilobolus longipes Tiegh.
 Pilobolus oedipus Mont.
 Pilobolus roridus (Bolton) Pers.
-Selon Catalogue of Life                                   (30 mars 2019)[3] :
+Selon Catalogue of Life                                   (30 mars 2019) :
 Pilobolus crystallinus (F. H. Wigg.) Tode, 1784
 Pilobolus kleinii Tiegh., 1878
 Pilobolus lentiger Corda, 1837
@@ -529,7 +543,7 @@
 Pilobolus oedipus Mont., 1826
 Pilobolus roridus (Bolton) Pers., 1801
 Pilobolus umbonatus Buller, 1934
-Selon Index Fungorum                                      (30 mars 2019)[4] :
+Selon Index Fungorum                                      (30 mars 2019) :
 Pilobolus crystallinus (F.H. Wigg.) Tode 1784
 Pilobolus crystallinus Bref. 1881
 Pilobolus crystallinus Cohn 1851
@@ -547,7 +561,7 @@
 Pilobolus pullus Massee 1901
 Pilobolus roridus (Bolton) Pers. 1801
 Pilobolus umbonatus Buller 1934
-Selon NCBI  (30 mars 2019)[5] :
+Selon NCBI  (30 mars 2019) :
 Pilobolus crystallinus
 Pilobolus heterosporus Palla 1900
 Pilobolus kleinii Pilobolus crystallinus var. kleinii (Tiegh.) R.Y.Zheng &amp; G.Q.Chen
